--- a/ELW2023/ELW2023_発表論文公開承諾書.xlsx
+++ b/ELW2023/ELW2023_発表論文公開承諾書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayu-a\Documents\GitHub\ELW\ELW2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\masayu-a\OneDrive - NINJAL\ドキュメント\GitHub\ELW\ELW2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>タイトル</t>
   </si>
@@ -672,7 +672,7 @@
   <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1055,12 +1055,49 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Invited_Students xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <FolderType xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <Owner xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <Invited_Teachers xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <NotebookType xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <CultureName xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <AppVersion xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <Templates xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
+    <Students xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Teachers xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Student_Groups xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1447,55 +1484,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Invited_Students xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <FolderType xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <Owner xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <Invited_Teachers xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <NotebookType xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <CultureName xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <AppVersion xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <Templates xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41" xsi:nil="true"/>
-    <Students xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Teachers xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Student_Groups xmlns="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0234DF2-6DDD-4E33-964F-7B49E9A391E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72F3867-CC1F-439F-86D6-7D75107B8029}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="f3f512d3-6195-4655-8eda-4b4a84e395f6"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1520,18 +1529,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72F3867-CC1F-439F-86D6-7D75107B8029}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0234DF2-6DDD-4E33-964F-7B49E9A391E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="f3f512d3-6195-4655-8eda-4b4a84e395f6"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="e56da3c0-a9e1-42c3-99ce-a9b98a1dde41"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>